--- a/Jogos_do_Dia/2023-08-21_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2023-08-21_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -133,18 +133,18 @@
     <t>Italy Serie A</t>
   </si>
   <si>
+    <t>Spain Segunda División</t>
+  </si>
+  <si>
+    <t>Spain La Liga</t>
+  </si>
+  <si>
     <t>Denmark Superliga</t>
   </si>
   <si>
     <t>Poland Ekstraklasa</t>
   </si>
   <si>
-    <t>Spain La Liga</t>
-  </si>
-  <si>
-    <t>Spain Segunda División</t>
-  </si>
-  <si>
     <t>Sweden Allsvenskan</t>
   </si>
   <si>
@@ -175,12 +175,12 @@
     <t>Argentina Primera División</t>
   </si>
   <si>
+    <t>Paraguay Division Profesional</t>
+  </si>
+  <si>
     <t>Brazil Serie C</t>
   </si>
   <si>
-    <t>Paraguay Division Profesional</t>
-  </si>
-  <si>
     <t>Brazil Serie A</t>
   </si>
   <si>
@@ -256,18 +256,18 @@
     <t>Torino</t>
   </si>
   <si>
+    <t>Villarreal II</t>
+  </si>
+  <si>
+    <t>Deportivo Alavés</t>
+  </si>
+  <si>
     <t>Viborg</t>
   </si>
   <si>
     <t>Cracovia Kraków</t>
   </si>
   <si>
-    <t>Deportivo Alavés</t>
-  </si>
-  <si>
-    <t>Villarreal II</t>
-  </si>
-  <si>
     <t>Norrköping</t>
   </si>
   <si>
@@ -277,27 +277,27 @@
     <t>Torreense</t>
   </si>
   <si>
+    <t>Utrecht II</t>
+  </si>
+  <si>
+    <t>Samsunspor</t>
+  </si>
+  <si>
+    <t>Ankaragücü</t>
+  </si>
+  <si>
     <t>Ajax II</t>
   </si>
   <si>
-    <t>Utrecht II</t>
-  </si>
-  <si>
-    <t>Samsunspor</t>
-  </si>
-  <si>
-    <t>Ankaragücü</t>
-  </si>
-  <si>
     <t>Universitatea Cluj</t>
   </si>
   <si>
+    <t>Bologna</t>
+  </si>
+  <si>
     <t>Ajaccio</t>
   </si>
   <si>
-    <t>Bologna</t>
-  </si>
-  <si>
     <t>Crystal Palace</t>
   </si>
   <si>
@@ -319,12 +319,12 @@
     <t>Huracán</t>
   </si>
   <si>
+    <t>Tacuary</t>
+  </si>
+  <si>
     <t>América RN</t>
   </si>
   <si>
-    <t>Tacuary</t>
-  </si>
-  <si>
     <t>Goiás</t>
   </si>
   <si>
@@ -349,18 +349,18 @@
     <t>Cagliari</t>
   </si>
   <si>
+    <t>CD Eldense</t>
+  </si>
+  <si>
+    <t>Sevilla FC</t>
+  </si>
+  <si>
     <t>Vejle</t>
   </si>
   <si>
     <t>Piast Gliwice</t>
   </si>
   <si>
-    <t>Sevilla FC</t>
-  </si>
-  <si>
-    <t>CD Eldense</t>
-  </si>
-  <si>
     <t>AIK</t>
   </si>
   <si>
@@ -370,27 +370,27 @@
     <t>CD Nacional</t>
   </si>
   <si>
+    <t>Groningen</t>
+  </si>
+  <si>
+    <t>Fenerbahçe</t>
+  </si>
+  <si>
+    <t>Adana Demirspor</t>
+  </si>
+  <si>
     <t>De Graafschap</t>
   </si>
   <si>
-    <t>Groningen</t>
-  </si>
-  <si>
-    <t>Fenerbahçe</t>
-  </si>
-  <si>
-    <t>Adana Demirspor</t>
-  </si>
-  <si>
     <t>CFR Cluj</t>
   </si>
   <si>
+    <t>AC Milan</t>
+  </si>
+  <si>
     <t>Bordeaux</t>
   </si>
   <si>
-    <t>AC Milan</t>
-  </si>
-  <si>
     <t>Arsenal</t>
   </si>
   <si>
@@ -412,10 +412,10 @@
     <t>Banfield</t>
   </si>
   <si>
+    <t>Resistencia</t>
+  </si>
+  <si>
     <t>Aparecidense</t>
-  </si>
-  <si>
-    <t>Resistencia</t>
   </si>
   <si>
     <t>Atlético PR</t>
@@ -919,13 +919,13 @@
         <v>106</v>
       </c>
       <c r="G2">
-        <v>2.24</v>
+        <v>2.19</v>
       </c>
       <c r="H2">
-        <v>3.3</v>
+        <v>2.97</v>
       </c>
       <c r="I2">
-        <v>2.68</v>
+        <v>2.73</v>
       </c>
       <c r="J2">
         <v>1.08</v>
@@ -940,10 +940,10 @@
         <v>3.2</v>
       </c>
       <c r="N2">
-        <v>1.97</v>
+        <v>1.84</v>
       </c>
       <c r="O2">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="P2">
         <v>1.44</v>
@@ -1026,13 +1026,13 @@
         <v>107</v>
       </c>
       <c r="G3">
-        <v>1.58</v>
+        <v>1.51</v>
       </c>
       <c r="H3">
-        <v>3.85</v>
+        <v>4.29</v>
       </c>
       <c r="I3">
-        <v>4.4</v>
+        <v>5.15</v>
       </c>
       <c r="J3">
         <v>1.04</v>
@@ -1047,10 +1047,10 @@
         <v>3.9</v>
       </c>
       <c r="N3">
-        <v>1.67</v>
+        <v>1.9</v>
       </c>
       <c r="O3">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="P3">
         <v>1.33</v>
@@ -1133,13 +1133,13 @@
         <v>108</v>
       </c>
       <c r="G4">
-        <v>2.57</v>
+        <v>2.34</v>
       </c>
       <c r="H4">
-        <v>3.55</v>
+        <v>3.16</v>
       </c>
       <c r="I4">
-        <v>2.64</v>
+        <v>2.41</v>
       </c>
       <c r="J4">
         <v>1.03</v>
@@ -1154,10 +1154,10 @@
         <v>4</v>
       </c>
       <c r="N4">
-        <v>2.04</v>
+        <v>1.87</v>
       </c>
       <c r="O4">
-        <v>1.82</v>
+        <v>1.68</v>
       </c>
       <c r="P4">
         <v>1.33</v>
@@ -1240,13 +1240,13 @@
         <v>109</v>
       </c>
       <c r="G5">
-        <v>1.8</v>
+        <v>1.79</v>
       </c>
       <c r="H5">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="I5">
-        <v>4.5</v>
+        <v>4.15</v>
       </c>
       <c r="J5">
         <v>1.09</v>
@@ -1261,10 +1261,10 @@
         <v>2.75</v>
       </c>
       <c r="N5">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="O5">
-        <v>1.53</v>
+        <v>1.67</v>
       </c>
       <c r="P5">
         <v>1.48</v>
@@ -1368,10 +1368,10 @@
         <v>3.2</v>
       </c>
       <c r="N6">
-        <v>2.15</v>
+        <v>2.14</v>
       </c>
       <c r="O6">
-        <v>1.72</v>
+        <v>1.67</v>
       </c>
       <c r="P6">
         <v>1.44</v>
@@ -1445,7 +1445,7 @@
         <v>61</v>
       </c>
       <c r="D7">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E7" t="s">
         <v>80</v>
@@ -1454,91 +1454,91 @@
         <v>111</v>
       </c>
       <c r="G7">
-        <v>1.66</v>
+        <v>2.04</v>
       </c>
       <c r="H7">
-        <v>3.85</v>
+        <v>3.15</v>
       </c>
       <c r="I7">
-        <v>4.6</v>
+        <v>3.55</v>
       </c>
       <c r="J7">
-        <v>1.01</v>
+        <v>1.07</v>
       </c>
       <c r="K7">
-        <v>10.5</v>
+        <v>7.5</v>
       </c>
       <c r="L7">
-        <v>1.22</v>
+        <v>1.36</v>
       </c>
       <c r="M7">
-        <v>3.7</v>
+        <v>3</v>
       </c>
       <c r="N7">
-        <v>1.88</v>
+        <v>2.1</v>
       </c>
       <c r="O7">
-        <v>1.98</v>
+        <v>1.7</v>
       </c>
       <c r="P7">
-        <v>1.36</v>
+        <v>1.44</v>
       </c>
       <c r="Q7">
-        <v>3</v>
+        <v>2.63</v>
       </c>
       <c r="R7">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="S7">
-        <v>1.95</v>
+        <v>1.83</v>
       </c>
       <c r="T7">
-        <v>1.16</v>
+        <v>1.28</v>
       </c>
       <c r="U7">
         <v>1.25</v>
       </c>
       <c r="V7">
-        <v>1.94</v>
+        <v>1.66</v>
       </c>
       <c r="W7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Y7">
-        <v>1.84</v>
+        <v>0</v>
       </c>
       <c r="Z7">
-        <v>1.07</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AA7">
-        <v>2.91</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AB7">
-        <v>1.37</v>
+        <v>1.75</v>
       </c>
       <c r="AC7">
-        <v>9</v>
+        <v>7.5</v>
       </c>
       <c r="AD7">
-        <v>3.83</v>
+        <v>2.45</v>
       </c>
       <c r="AE7">
-        <v>1.33</v>
+        <v>1.38</v>
       </c>
       <c r="AF7">
-        <v>1.6</v>
+        <v>1.71</v>
       </c>
       <c r="AG7">
-        <v>2.04</v>
+        <v>2.25</v>
       </c>
       <c r="AH7">
-        <v>2.75</v>
+        <v>3.1</v>
       </c>
       <c r="AI7">
-        <v>3.85</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="8" spans="1:35">
@@ -1552,7 +1552,7 @@
         <v>61</v>
       </c>
       <c r="D8">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E8" t="s">
         <v>81</v>
@@ -1561,91 +1561,91 @@
         <v>112</v>
       </c>
       <c r="G8">
-        <v>2.3</v>
+        <v>3.15</v>
       </c>
       <c r="H8">
-        <v>2.9</v>
+        <v>3.25</v>
       </c>
       <c r="I8">
-        <v>3.1</v>
+        <v>2.39</v>
       </c>
       <c r="J8">
-        <v>1.09</v>
+        <v>1.11</v>
       </c>
       <c r="K8">
-        <v>8.5</v>
+        <v>7.2</v>
       </c>
       <c r="L8">
-        <v>1.43</v>
+        <v>1.52</v>
       </c>
       <c r="M8">
-        <v>2.88</v>
+        <v>2.55</v>
       </c>
       <c r="N8">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="O8">
         <v>1.53</v>
       </c>
       <c r="P8">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="Q8">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="R8">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="S8">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="T8">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="U8">
-        <v>1.33</v>
+        <v>1.38</v>
       </c>
       <c r="V8">
         <v>1.35</v>
       </c>
       <c r="W8">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="X8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y8">
-        <v>1.83</v>
+        <v>0</v>
       </c>
       <c r="Z8">
-        <v>1.41</v>
+        <v>0</v>
       </c>
       <c r="AA8">
-        <v>3.24</v>
+        <v>0</v>
       </c>
       <c r="AB8">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="AC8">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AD8">
-        <v>2.05</v>
+        <v>1.96</v>
       </c>
       <c r="AE8">
-        <v>1.25</v>
+        <v>1.28</v>
       </c>
       <c r="AF8">
-        <v>1.47</v>
+        <v>1.52</v>
       </c>
       <c r="AG8">
-        <v>1.77</v>
+        <v>1.88</v>
       </c>
       <c r="AH8">
         <v>2.38</v>
       </c>
       <c r="AI8">
-        <v>3.25</v>
+        <v>3.15</v>
       </c>
     </row>
     <row r="9" spans="1:35">
@@ -1659,7 +1659,7 @@
         <v>61</v>
       </c>
       <c r="D9">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E9" t="s">
         <v>82</v>
@@ -1668,91 +1668,91 @@
         <v>113</v>
       </c>
       <c r="G9">
-        <v>3.15</v>
+        <v>1.64</v>
       </c>
       <c r="H9">
-        <v>3.25</v>
+        <v>3.44</v>
       </c>
       <c r="I9">
-        <v>2.39</v>
+        <v>4.37</v>
       </c>
       <c r="J9">
-        <v>1.11</v>
+        <v>1.01</v>
       </c>
       <c r="K9">
-        <v>7.2</v>
+        <v>10.5</v>
       </c>
       <c r="L9">
-        <v>1.5</v>
+        <v>1.22</v>
       </c>
       <c r="M9">
-        <v>2.55</v>
+        <v>3.7</v>
       </c>
       <c r="N9">
-        <v>2.5</v>
+        <v>1.79</v>
       </c>
       <c r="O9">
-        <v>1.53</v>
+        <v>1.81</v>
       </c>
       <c r="P9">
-        <v>1.57</v>
+        <v>1.36</v>
       </c>
       <c r="Q9">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="R9">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="S9">
-        <v>1.67</v>
+        <v>1.95</v>
       </c>
       <c r="T9">
-        <v>1.58</v>
+        <v>1.16</v>
       </c>
       <c r="U9">
-        <v>1.38</v>
+        <v>1.25</v>
       </c>
       <c r="V9">
-        <v>1.35</v>
+        <v>1.94</v>
       </c>
       <c r="W9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X9">
         <v>0</v>
       </c>
       <c r="Y9">
-        <v>0</v>
+        <v>1.84</v>
       </c>
       <c r="Z9">
-        <v>0</v>
+        <v>1.07</v>
       </c>
       <c r="AA9">
-        <v>0</v>
+        <v>2.91</v>
       </c>
       <c r="AB9">
-        <v>2.1</v>
+        <v>1.37</v>
       </c>
       <c r="AC9">
-        <v>7.5</v>
+        <v>9</v>
       </c>
       <c r="AD9">
-        <v>1.96</v>
+        <v>3.83</v>
       </c>
       <c r="AE9">
-        <v>1.28</v>
+        <v>1.33</v>
       </c>
       <c r="AF9">
-        <v>1.52</v>
+        <v>1.6</v>
       </c>
       <c r="AG9">
-        <v>1.88</v>
+        <v>2.04</v>
       </c>
       <c r="AH9">
-        <v>2.38</v>
+        <v>2.75</v>
       </c>
       <c r="AI9">
-        <v>3.15</v>
+        <v>3.85</v>
       </c>
     </row>
     <row r="10" spans="1:35">
@@ -1766,7 +1766,7 @@
         <v>61</v>
       </c>
       <c r="D10">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E10" t="s">
         <v>83</v>
@@ -1775,91 +1775,91 @@
         <v>114</v>
       </c>
       <c r="G10">
+        <v>2.72</v>
+      </c>
+      <c r="H10">
+        <v>2.99</v>
+      </c>
+      <c r="I10">
+        <v>2.34</v>
+      </c>
+      <c r="J10">
+        <v>1.09</v>
+      </c>
+      <c r="K10">
+        <v>8.5</v>
+      </c>
+      <c r="L10">
+        <v>1.43</v>
+      </c>
+      <c r="M10">
+        <v>2.88</v>
+      </c>
+      <c r="N10">
+        <v>2.33</v>
+      </c>
+      <c r="O10">
+        <v>1.58</v>
+      </c>
+      <c r="P10">
+        <v>1.53</v>
+      </c>
+      <c r="Q10">
+        <v>2.38</v>
+      </c>
+      <c r="R10">
         <v>2</v>
       </c>
-      <c r="H10">
-        <v>3.4</v>
-      </c>
-      <c r="I10">
-        <v>3.6</v>
-      </c>
-      <c r="J10">
-        <v>1.07</v>
-      </c>
-      <c r="K10">
-        <v>7.5</v>
-      </c>
-      <c r="L10">
-        <v>1.36</v>
-      </c>
-      <c r="M10">
+      <c r="S10">
+        <v>1.75</v>
+      </c>
+      <c r="T10">
+        <v>1.64</v>
+      </c>
+      <c r="U10">
+        <v>1.33</v>
+      </c>
+      <c r="V10">
+        <v>1.35</v>
+      </c>
+      <c r="W10">
         <v>3</v>
       </c>
-      <c r="N10">
-        <v>2.15</v>
-      </c>
-      <c r="O10">
-        <v>1.65</v>
-      </c>
-      <c r="P10">
-        <v>1.44</v>
-      </c>
-      <c r="Q10">
-        <v>2.63</v>
-      </c>
-      <c r="R10">
+      <c r="X10">
+        <v>1</v>
+      </c>
+      <c r="Y10">
         <v>1.83</v>
       </c>
-      <c r="S10">
-        <v>1.83</v>
-      </c>
-      <c r="T10">
-        <v>1.28</v>
-      </c>
-      <c r="U10">
+      <c r="Z10">
+        <v>1.41</v>
+      </c>
+      <c r="AA10">
+        <v>3.24</v>
+      </c>
+      <c r="AB10">
+        <v>1.95</v>
+      </c>
+      <c r="AC10">
+        <v>8</v>
+      </c>
+      <c r="AD10">
+        <v>2.05</v>
+      </c>
+      <c r="AE10">
         <v>1.25</v>
       </c>
-      <c r="V10">
-        <v>1.66</v>
-      </c>
-      <c r="W10">
-        <v>0</v>
-      </c>
-      <c r="X10">
-        <v>3</v>
-      </c>
-      <c r="Y10">
-        <v>0</v>
-      </c>
-      <c r="Z10">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="AA10">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="AB10">
-        <v>1.75</v>
-      </c>
-      <c r="AC10">
-        <v>7.5</v>
-      </c>
-      <c r="AD10">
-        <v>2.45</v>
-      </c>
-      <c r="AE10">
-        <v>1.38</v>
-      </c>
       <c r="AF10">
-        <v>1.71</v>
+        <v>1.47</v>
       </c>
       <c r="AG10">
-        <v>2.25</v>
+        <v>1.77</v>
       </c>
       <c r="AH10">
-        <v>3.1</v>
+        <v>2.38</v>
       </c>
       <c r="AI10">
-        <v>4.5</v>
+        <v>3.25</v>
       </c>
     </row>
     <row r="11" spans="1:35">
@@ -1882,13 +1882,13 @@
         <v>115</v>
       </c>
       <c r="G11">
-        <v>2.43</v>
+        <v>2.23</v>
       </c>
       <c r="H11">
-        <v>3.55</v>
+        <v>3.15</v>
       </c>
       <c r="I11">
-        <v>2.58</v>
+        <v>2.76</v>
       </c>
       <c r="J11">
         <v>1.05</v>
@@ -1903,10 +1903,10 @@
         <v>3.55</v>
       </c>
       <c r="N11">
+        <v>1.75</v>
+      </c>
+      <c r="O11">
         <v>1.86</v>
-      </c>
-      <c r="O11">
-        <v>2</v>
       </c>
       <c r="P11">
         <v>1.36</v>
@@ -2010,10 +2010,10 @@
         <v>3.6</v>
       </c>
       <c r="N12">
-        <v>1.83</v>
+        <v>1.89</v>
       </c>
       <c r="O12">
-        <v>1.83</v>
+        <v>1.89</v>
       </c>
       <c r="P12">
         <v>1.36</v>
@@ -2061,19 +2061,19 @@
         <v>0</v>
       </c>
       <c r="AE12">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="AF12">
-        <v>0</v>
+        <v>1.47</v>
       </c>
       <c r="AG12">
-        <v>0</v>
+        <v>1.83</v>
       </c>
       <c r="AH12">
-        <v>0</v>
+        <v>2.38</v>
       </c>
       <c r="AI12">
-        <v>0</v>
+        <v>3.25</v>
       </c>
     </row>
     <row r="13" spans="1:35">
@@ -2096,13 +2096,13 @@
         <v>117</v>
       </c>
       <c r="G13">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="H13">
         <v>3.2</v>
       </c>
       <c r="I13">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="J13">
         <v>1.03</v>
@@ -2117,10 +2117,10 @@
         <v>2.95</v>
       </c>
       <c r="N13">
-        <v>2.05</v>
+        <v>2.01</v>
       </c>
       <c r="O13">
-        <v>1.61</v>
+        <v>1.66</v>
       </c>
       <c r="P13">
         <v>1.42</v>
@@ -2203,96 +2203,96 @@
         <v>118</v>
       </c>
       <c r="G14">
-        <v>2.75</v>
+        <v>4.6</v>
       </c>
       <c r="H14">
+        <v>3.75</v>
+      </c>
+      <c r="I14">
+        <v>1.57</v>
+      </c>
+      <c r="J14">
+        <v>1.03</v>
+      </c>
+      <c r="K14">
+        <v>18</v>
+      </c>
+      <c r="L14">
+        <v>1.18</v>
+      </c>
+      <c r="M14">
+        <v>4.33</v>
+      </c>
+      <c r="N14">
+        <v>1.57</v>
+      </c>
+      <c r="O14">
+        <v>2.25</v>
+      </c>
+      <c r="P14">
+        <v>1.3</v>
+      </c>
+      <c r="Q14">
+        <v>3.4</v>
+      </c>
+      <c r="R14">
+        <v>1.67</v>
+      </c>
+      <c r="S14">
+        <v>2.1</v>
+      </c>
+      <c r="T14">
+        <v>2.1</v>
+      </c>
+      <c r="U14">
+        <v>1.25</v>
+      </c>
+      <c r="V14">
+        <v>1.18</v>
+      </c>
+      <c r="W14">
+        <v>0</v>
+      </c>
+      <c r="X14">
+        <v>0</v>
+      </c>
+      <c r="Y14">
+        <v>0</v>
+      </c>
+      <c r="Z14">
+        <v>0</v>
+      </c>
+      <c r="AA14">
+        <v>0</v>
+      </c>
+      <c r="AB14">
+        <v>0</v>
+      </c>
+      <c r="AC14">
+        <v>0</v>
+      </c>
+      <c r="AD14">
+        <v>0</v>
+      </c>
+      <c r="AE14">
+        <v>1.29</v>
+      </c>
+      <c r="AF14">
+        <v>1.53</v>
+      </c>
+      <c r="AG14">
+        <v>1.92</v>
+      </c>
+      <c r="AH14">
+        <v>2.55</v>
+      </c>
+      <c r="AI14">
         <v>3.5</v>
-      </c>
-      <c r="I14">
-        <v>2.15</v>
-      </c>
-      <c r="J14">
-        <v>0</v>
-      </c>
-      <c r="K14">
-        <v>0</v>
-      </c>
-      <c r="L14">
-        <v>0</v>
-      </c>
-      <c r="M14">
-        <v>0</v>
-      </c>
-      <c r="N14">
-        <v>1.4</v>
-      </c>
-      <c r="O14">
-        <v>2.88</v>
-      </c>
-      <c r="P14">
-        <v>1.22</v>
-      </c>
-      <c r="Q14">
-        <v>4</v>
-      </c>
-      <c r="R14">
-        <v>1.36</v>
-      </c>
-      <c r="S14">
-        <v>3</v>
-      </c>
-      <c r="T14">
-        <v>0</v>
-      </c>
-      <c r="U14">
-        <v>0</v>
-      </c>
-      <c r="V14">
-        <v>0</v>
-      </c>
-      <c r="W14">
-        <v>0</v>
-      </c>
-      <c r="X14">
-        <v>0</v>
-      </c>
-      <c r="Y14">
-        <v>0</v>
-      </c>
-      <c r="Z14">
-        <v>0</v>
-      </c>
-      <c r="AA14">
-        <v>0</v>
-      </c>
-      <c r="AB14">
-        <v>0</v>
-      </c>
-      <c r="AC14">
-        <v>0</v>
-      </c>
-      <c r="AD14">
-        <v>0</v>
-      </c>
-      <c r="AE14">
-        <v>0</v>
-      </c>
-      <c r="AF14">
-        <v>0</v>
-      </c>
-      <c r="AG14">
-        <v>0</v>
-      </c>
-      <c r="AH14">
-        <v>0</v>
-      </c>
-      <c r="AI14">
-        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:35">
       <c r="A15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B15" s="2">
         <v>45159</v>
@@ -2310,52 +2310,52 @@
         <v>119</v>
       </c>
       <c r="G15">
-        <v>4.6</v>
+        <v>4.8</v>
       </c>
       <c r="H15">
-        <v>3.75</v>
+        <v>4.3</v>
       </c>
       <c r="I15">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="J15">
         <v>1.03</v>
       </c>
       <c r="K15">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L15">
-        <v>1.18</v>
+        <v>1.15</v>
       </c>
       <c r="M15">
-        <v>4.33</v>
+        <v>5.17</v>
       </c>
       <c r="N15">
-        <v>1.57</v>
+        <v>1.56</v>
       </c>
       <c r="O15">
-        <v>2.25</v>
+        <v>2.37</v>
       </c>
       <c r="P15">
         <v>1.3</v>
       </c>
       <c r="Q15">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="R15">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="S15">
-        <v>2.1</v>
+        <v>2.35</v>
       </c>
       <c r="T15">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="U15">
         <v>1.25</v>
       </c>
       <c r="V15">
-        <v>1.18</v>
+        <v>1.12</v>
       </c>
       <c r="W15">
         <v>0</v>
@@ -2373,25 +2373,25 @@
         <v>0</v>
       </c>
       <c r="AB15">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="AC15">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AD15">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="AE15">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="AF15">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AG15">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AH15">
-        <v>2.55</v>
+        <v>2.5</v>
       </c>
       <c r="AI15">
         <v>3.5</v>
@@ -2417,52 +2417,52 @@
         <v>120</v>
       </c>
       <c r="G16">
-        <v>4.75</v>
+        <v>2.89</v>
       </c>
       <c r="H16">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="I16">
+        <v>2.11</v>
+      </c>
+      <c r="J16">
+        <v>1.01</v>
+      </c>
+      <c r="K16">
+        <v>13</v>
+      </c>
+      <c r="L16">
+        <v>1.12</v>
+      </c>
+      <c r="M16">
+        <v>5.7</v>
+      </c>
+      <c r="N16">
+        <v>1.53</v>
+      </c>
+      <c r="O16">
+        <v>2.43</v>
+      </c>
+      <c r="P16">
+        <v>1.24</v>
+      </c>
+      <c r="Q16">
+        <v>3.82</v>
+      </c>
+      <c r="R16">
+        <v>1.4</v>
+      </c>
+      <c r="S16">
+        <v>2.81</v>
+      </c>
+      <c r="T16">
         <v>1.57</v>
       </c>
-      <c r="J16">
-        <v>1.03</v>
-      </c>
-      <c r="K16">
-        <v>17</v>
-      </c>
-      <c r="L16">
-        <v>1.15</v>
-      </c>
-      <c r="M16">
-        <v>5.17</v>
-      </c>
-      <c r="N16">
-        <v>1.57</v>
-      </c>
-      <c r="O16">
-        <v>2.22</v>
-      </c>
-      <c r="P16">
-        <v>1.3</v>
-      </c>
-      <c r="Q16">
-        <v>3.75</v>
-      </c>
-      <c r="R16">
-        <v>1.6</v>
-      </c>
-      <c r="S16">
-        <v>2.35</v>
-      </c>
-      <c r="T16">
-        <v>2.3</v>
-      </c>
       <c r="U16">
-        <v>1.25</v>
+        <v>1.27</v>
       </c>
       <c r="V16">
-        <v>1.12</v>
+        <v>1.42</v>
       </c>
       <c r="W16">
         <v>0</v>
@@ -2480,33 +2480,33 @@
         <v>0</v>
       </c>
       <c r="AB16">
-        <v>3.3</v>
+        <v>1.78</v>
       </c>
       <c r="AC16">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AD16">
-        <v>1.53</v>
+        <v>2.6</v>
       </c>
       <c r="AE16">
-        <v>1.27</v>
+        <v>1.22</v>
       </c>
       <c r="AF16">
-        <v>1.5</v>
+        <v>1.42</v>
       </c>
       <c r="AG16">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AH16">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="AI16">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="17" spans="1:35">
       <c r="A17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B17" s="2">
         <v>45159</v>
@@ -2524,52 +2524,52 @@
         <v>121</v>
       </c>
       <c r="G17">
-        <v>2.9</v>
+        <v>2.75</v>
       </c>
       <c r="H17">
         <v>3.5</v>
       </c>
       <c r="I17">
-        <v>2.05</v>
+        <v>2.15</v>
       </c>
       <c r="J17">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>1.12</v>
+        <v>0</v>
       </c>
       <c r="M17">
-        <v>5.7</v>
+        <v>0</v>
       </c>
       <c r="N17">
-        <v>1.52</v>
+        <v>1.4</v>
       </c>
       <c r="O17">
-        <v>2.32</v>
+        <v>2.88</v>
       </c>
       <c r="P17">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="Q17">
-        <v>3.82</v>
+        <v>4</v>
       </c>
       <c r="R17">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="S17">
-        <v>2.81</v>
+        <v>3</v>
       </c>
       <c r="T17">
-        <v>1.57</v>
+        <v>0</v>
       </c>
       <c r="U17">
-        <v>1.27</v>
+        <v>0</v>
       </c>
       <c r="V17">
-        <v>1.42</v>
+        <v>0</v>
       </c>
       <c r="W17">
         <v>0</v>
@@ -2587,28 +2587,28 @@
         <v>0</v>
       </c>
       <c r="AB17">
-        <v>1.78</v>
+        <v>0</v>
       </c>
       <c r="AC17">
-        <v>6.5</v>
+        <v>0</v>
       </c>
       <c r="AD17">
-        <v>2.6</v>
+        <v>0</v>
       </c>
       <c r="AE17">
-        <v>1.22</v>
+        <v>0</v>
       </c>
       <c r="AF17">
-        <v>1.42</v>
+        <v>0</v>
       </c>
       <c r="AG17">
-        <v>1.83</v>
+        <v>0</v>
       </c>
       <c r="AH17">
-        <v>2.25</v>
+        <v>0</v>
       </c>
       <c r="AI17">
-        <v>3.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:35">
@@ -2631,10 +2631,10 @@
         <v>122</v>
       </c>
       <c r="G18">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="H18">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="I18">
         <v>2.05</v>
@@ -2652,10 +2652,10 @@
         <v>2.7</v>
       </c>
       <c r="N18">
-        <v>2.15</v>
+        <v>2.28</v>
       </c>
       <c r="O18">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="P18">
         <v>1.49</v>
@@ -2720,7 +2720,7 @@
     </row>
     <row r="19" spans="1:35">
       <c r="A19" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="B19" s="2">
         <v>45159</v>
@@ -2729,7 +2729,7 @@
         <v>67</v>
       </c>
       <c r="D19">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E19" t="s">
         <v>92</v>
@@ -2738,96 +2738,96 @@
         <v>123</v>
       </c>
       <c r="G19">
-        <v>2.33</v>
+        <v>3.7</v>
       </c>
       <c r="H19">
-        <v>3.05</v>
+        <v>3.6</v>
       </c>
       <c r="I19">
-        <v>2.94</v>
+        <v>2.04</v>
       </c>
       <c r="J19">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="K19">
-        <v>6.25</v>
+        <v>8</v>
       </c>
       <c r="L19">
-        <v>1.52</v>
+        <v>1.33</v>
       </c>
       <c r="M19">
-        <v>2.54</v>
+        <v>3.2</v>
       </c>
       <c r="N19">
-        <v>2.37</v>
+        <v>2.04</v>
       </c>
       <c r="O19">
-        <v>1.5</v>
+        <v>1.74</v>
       </c>
       <c r="P19">
-        <v>1.53</v>
+        <v>1.4</v>
       </c>
       <c r="Q19">
-        <v>2.38</v>
+        <v>2.75</v>
       </c>
       <c r="R19">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S19">
-        <v>1.73</v>
+        <v>1.95</v>
       </c>
       <c r="T19">
-        <v>1.41</v>
+        <v>1.84</v>
       </c>
       <c r="U19">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="V19">
-        <v>1.47</v>
+        <v>1.28</v>
       </c>
       <c r="W19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X19">
         <v>0</v>
       </c>
       <c r="Y19">
-        <v>2.08</v>
+        <v>0</v>
       </c>
       <c r="Z19">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AA19">
-        <v>4.08</v>
+        <v>0</v>
       </c>
       <c r="AB19">
-        <v>1.98</v>
+        <v>2.4</v>
       </c>
       <c r="AC19">
-        <v>7.9</v>
+        <v>7.5</v>
       </c>
       <c r="AD19">
-        <v>2.17</v>
+        <v>1.77</v>
       </c>
       <c r="AE19">
-        <v>1.57</v>
+        <v>1.34</v>
       </c>
       <c r="AF19">
-        <v>2.02</v>
+        <v>1.76</v>
       </c>
       <c r="AG19">
-        <v>2.75</v>
+        <v>2.2</v>
       </c>
       <c r="AH19">
-        <v>3.9</v>
+        <v>2.65</v>
       </c>
       <c r="AI19">
-        <v>0</v>
+        <v>3.55</v>
       </c>
     </row>
     <row r="20" spans="1:35">
       <c r="A20" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="B20" s="2">
         <v>45159</v>
@@ -2836,7 +2836,7 @@
         <v>67</v>
       </c>
       <c r="D20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E20" t="s">
         <v>93</v>
@@ -2845,91 +2845,91 @@
         <v>124</v>
       </c>
       <c r="G20">
-        <v>3.7</v>
+        <v>2.33</v>
       </c>
       <c r="H20">
-        <v>3.6</v>
+        <v>3.05</v>
       </c>
       <c r="I20">
-        <v>2.04</v>
+        <v>2.94</v>
       </c>
       <c r="J20">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="K20">
-        <v>8</v>
+        <v>6.25</v>
       </c>
       <c r="L20">
-        <v>1.33</v>
+        <v>1.52</v>
       </c>
       <c r="M20">
-        <v>3.2</v>
+        <v>2.54</v>
       </c>
       <c r="N20">
-        <v>2.05</v>
+        <v>2.44</v>
       </c>
       <c r="O20">
-        <v>1.78</v>
+        <v>1.49</v>
       </c>
       <c r="P20">
+        <v>1.53</v>
+      </c>
+      <c r="Q20">
+        <v>2.38</v>
+      </c>
+      <c r="R20">
+        <v>2</v>
+      </c>
+      <c r="S20">
+        <v>1.73</v>
+      </c>
+      <c r="T20">
+        <v>1.41</v>
+      </c>
+      <c r="U20">
         <v>1.4</v>
       </c>
-      <c r="Q20">
+      <c r="V20">
+        <v>1.47</v>
+      </c>
+      <c r="W20">
+        <v>1</v>
+      </c>
+      <c r="X20">
+        <v>0</v>
+      </c>
+      <c r="Y20">
+        <v>2.08</v>
+      </c>
+      <c r="Z20">
+        <v>2</v>
+      </c>
+      <c r="AA20">
+        <v>4.08</v>
+      </c>
+      <c r="AB20">
+        <v>1.98</v>
+      </c>
+      <c r="AC20">
+        <v>7.9</v>
+      </c>
+      <c r="AD20">
+        <v>2.17</v>
+      </c>
+      <c r="AE20">
+        <v>1.57</v>
+      </c>
+      <c r="AF20">
+        <v>2.02</v>
+      </c>
+      <c r="AG20">
         <v>2.75</v>
       </c>
-      <c r="R20">
-        <v>1.8</v>
-      </c>
-      <c r="S20">
-        <v>1.95</v>
-      </c>
-      <c r="T20">
-        <v>1.84</v>
-      </c>
-      <c r="U20">
-        <v>1.3</v>
-      </c>
-      <c r="V20">
-        <v>1.28</v>
-      </c>
-      <c r="W20">
-        <v>0</v>
-      </c>
-      <c r="X20">
-        <v>0</v>
-      </c>
-      <c r="Y20">
-        <v>0</v>
-      </c>
-      <c r="Z20">
-        <v>0</v>
-      </c>
-      <c r="AA20">
-        <v>0</v>
-      </c>
-      <c r="AB20">
-        <v>2.4</v>
-      </c>
-      <c r="AC20">
-        <v>7.5</v>
-      </c>
-      <c r="AD20">
-        <v>1.77</v>
-      </c>
-      <c r="AE20">
-        <v>1.34</v>
-      </c>
-      <c r="AF20">
-        <v>1.76</v>
-      </c>
-      <c r="AG20">
-        <v>2.2</v>
-      </c>
       <c r="AH20">
-        <v>2.65</v>
+        <v>3.9</v>
       </c>
       <c r="AI20">
-        <v>3.55</v>
+        <v>6.7</v>
       </c>
     </row>
     <row r="21" spans="1:35">
@@ -3059,13 +3059,13 @@
         <v>126</v>
       </c>
       <c r="G22">
-        <v>1.9</v>
+        <v>2.01</v>
       </c>
       <c r="H22">
-        <v>3.7</v>
+        <v>3.59</v>
       </c>
       <c r="I22">
-        <v>3.1</v>
+        <v>3.27</v>
       </c>
       <c r="J22">
         <v>1.02</v>
@@ -3190,7 +3190,7 @@
         <v>2.25</v>
       </c>
       <c r="O23">
-        <v>1.63</v>
+        <v>1.6</v>
       </c>
       <c r="P23">
         <v>0</v>
@@ -3255,7 +3255,7 @@
     </row>
     <row r="24" spans="1:35">
       <c r="A24" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B24" s="2">
         <v>45159</v>
@@ -3362,7 +3362,7 @@
     </row>
     <row r="25" spans="1:35">
       <c r="A25" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B25" s="2">
         <v>45159</v>
@@ -3401,10 +3401,10 @@
         <v>2.75</v>
       </c>
       <c r="N25">
-        <v>2.35</v>
+        <v>2.25</v>
       </c>
       <c r="O25">
-        <v>1.6</v>
+        <v>1.65</v>
       </c>
       <c r="P25">
         <v>1.53</v>
@@ -3487,13 +3487,13 @@
         <v>130</v>
       </c>
       <c r="G26">
-        <v>2.8</v>
+        <v>2.63</v>
       </c>
       <c r="H26">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="I26">
-        <v>2.35</v>
+        <v>2.38</v>
       </c>
       <c r="J26">
         <v>1.02</v>
@@ -3508,7 +3508,7 @@
         <v>3.13</v>
       </c>
       <c r="N26">
-        <v>2</v>
+        <v>1.99</v>
       </c>
       <c r="O26">
         <v>1.67</v>
@@ -3692,7 +3692,7 @@
         <v>73</v>
       </c>
       <c r="D28">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="E28" t="s">
         <v>101</v>
@@ -3701,67 +3701,67 @@
         <v>132</v>
       </c>
       <c r="G28">
-        <v>1.91</v>
+        <v>2.22</v>
       </c>
       <c r="H28">
-        <v>3</v>
+        <v>3.02</v>
       </c>
       <c r="I28">
-        <v>3.9</v>
+        <v>2.64</v>
       </c>
       <c r="J28">
-        <v>1.1</v>
+        <v>0</v>
       </c>
       <c r="K28">
-        <v>6.5</v>
+        <v>0</v>
       </c>
       <c r="L28">
-        <v>1.4</v>
+        <v>0</v>
       </c>
       <c r="M28">
-        <v>2.75</v>
+        <v>0</v>
       </c>
       <c r="N28">
-        <v>2.3</v>
+        <v>1.94</v>
       </c>
       <c r="O28">
-        <v>1.5</v>
+        <v>1.83</v>
       </c>
       <c r="P28">
-        <v>1.44</v>
+        <v>0</v>
       </c>
       <c r="Q28">
-        <v>2.62</v>
+        <v>0</v>
       </c>
       <c r="R28">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S28">
-        <v>1.73</v>
+        <v>0</v>
       </c>
       <c r="T28">
-        <v>1.18</v>
+        <v>0</v>
       </c>
       <c r="U28">
-        <v>1.35</v>
+        <v>0</v>
       </c>
       <c r="V28">
-        <v>1.83</v>
+        <v>0</v>
       </c>
       <c r="W28">
-        <v>1.38</v>
+        <v>1</v>
       </c>
       <c r="X28">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="Y28">
-        <v>2.04</v>
+        <v>1.13</v>
       </c>
       <c r="Z28">
-        <v>1.01</v>
+        <v>1.32</v>
       </c>
       <c r="AA28">
-        <v>3.05</v>
+        <v>2.45</v>
       </c>
       <c r="AB28">
         <v>0</v>
@@ -3799,7 +3799,7 @@
         <v>73</v>
       </c>
       <c r="D29">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="E29" t="s">
         <v>102</v>
@@ -3808,67 +3808,67 @@
         <v>133</v>
       </c>
       <c r="G29">
-        <v>2.22</v>
+        <v>1.78</v>
       </c>
       <c r="H29">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="I29">
-        <v>2.73</v>
+        <v>3.76</v>
       </c>
       <c r="J29">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="K29">
-        <v>0</v>
+        <v>6.5</v>
       </c>
       <c r="L29">
-        <v>0</v>
+        <v>1.49</v>
       </c>
       <c r="M29">
-        <v>0</v>
+        <v>2.48</v>
       </c>
       <c r="N29">
-        <v>2.01</v>
+        <v>2.55</v>
       </c>
       <c r="O29">
-        <v>1.79</v>
+        <v>1.45</v>
       </c>
       <c r="P29">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="Q29">
-        <v>0</v>
+        <v>2.62</v>
       </c>
       <c r="R29">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S29">
-        <v>0</v>
+        <v>1.73</v>
       </c>
       <c r="T29">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="U29">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="V29">
-        <v>0</v>
+        <v>1.83</v>
       </c>
       <c r="W29">
+        <v>1.38</v>
+      </c>
+      <c r="X29">
         <v>1</v>
       </c>
-      <c r="X29">
-        <v>0.92</v>
-      </c>
       <c r="Y29">
-        <v>1.13</v>
+        <v>2.04</v>
       </c>
       <c r="Z29">
-        <v>1.32</v>
+        <v>1.01</v>
       </c>
       <c r="AA29">
-        <v>2.45</v>
+        <v>3.05</v>
       </c>
       <c r="AB29">
         <v>0</v>
@@ -3915,37 +3915,37 @@
         <v>134</v>
       </c>
       <c r="G30">
-        <v>2.66</v>
+        <v>2.88</v>
       </c>
       <c r="H30">
-        <v>3.15</v>
+        <v>3.4</v>
       </c>
       <c r="I30">
-        <v>2.59</v>
+        <v>2.4</v>
       </c>
       <c r="J30">
-        <v>0</v>
+        <v>1.07</v>
       </c>
       <c r="K30">
-        <v>0</v>
+        <v>6.5</v>
       </c>
       <c r="L30">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="M30">
-        <v>0</v>
+        <v>2.6</v>
       </c>
       <c r="N30">
         <v>2.5</v>
       </c>
       <c r="O30">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="P30">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="Q30">
-        <v>0</v>
+        <v>2.38</v>
       </c>
       <c r="R30">
         <v>2.1</v>
@@ -3954,13 +3954,13 @@
         <v>1.67</v>
       </c>
       <c r="T30">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="U30">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="V30">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="W30">
         <v>1.33</v>
@@ -3978,33 +3978,33 @@
         <v>2.9</v>
       </c>
       <c r="AB30">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AC30">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AD30">
-        <v>2.12</v>
+        <v>2.05</v>
       </c>
       <c r="AE30">
-        <v>0</v>
+        <v>1.14</v>
       </c>
       <c r="AF30">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="AG30">
         <v>2</v>
       </c>
       <c r="AH30">
-        <v>0</v>
+        <v>1.93</v>
       </c>
       <c r="AI30">
-        <v>0</v>
+        <v>2.46</v>
       </c>
     </row>
     <row r="31" spans="1:35">
       <c r="A31" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B31" s="2">
         <v>45159</v>
@@ -4022,13 +4022,13 @@
         <v>135</v>
       </c>
       <c r="G31">
-        <v>1.95</v>
+        <v>1.84</v>
       </c>
       <c r="H31">
-        <v>3</v>
+        <v>3.04</v>
       </c>
       <c r="I31">
-        <v>3.75</v>
+        <v>3.48</v>
       </c>
       <c r="J31">
         <v>1.06</v>
@@ -4043,10 +4043,10 @@
         <v>2.54</v>
       </c>
       <c r="N31">
-        <v>2.25</v>
+        <v>2.36</v>
       </c>
       <c r="O31">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="P31">
         <v>1.51</v>

--- a/Jogos_do_Dia/2023-08-21_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2023-08-21_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -133,18 +133,18 @@
     <t>Italy Serie A</t>
   </si>
   <si>
+    <t>Denmark Superliga</t>
+  </si>
+  <si>
+    <t>Poland Ekstraklasa</t>
+  </si>
+  <si>
+    <t>Spain La Liga</t>
+  </si>
+  <si>
     <t>Spain Segunda División</t>
   </si>
   <si>
-    <t>Spain La Liga</t>
-  </si>
-  <si>
-    <t>Denmark Superliga</t>
-  </si>
-  <si>
-    <t>Poland Ekstraklasa</t>
-  </si>
-  <si>
     <t>Sweden Allsvenskan</t>
   </si>
   <si>
@@ -154,12 +154,12 @@
     <t>Portugal LigaPro</t>
   </si>
   <si>
+    <t>Turkey Süper Lig</t>
+  </si>
+  <si>
     <t>Netherlands Eerste Divisie</t>
   </si>
   <si>
-    <t>Turkey Süper Lig</t>
-  </si>
-  <si>
     <t>France Ligue 2</t>
   </si>
   <si>
@@ -256,18 +256,18 @@
     <t>Torino</t>
   </si>
   <si>
+    <t>Viborg</t>
+  </si>
+  <si>
+    <t>Cracovia Kraków</t>
+  </si>
+  <si>
+    <t>Deportivo Alavés</t>
+  </si>
+  <si>
     <t>Villarreal II</t>
   </si>
   <si>
-    <t>Deportivo Alavés</t>
-  </si>
-  <si>
-    <t>Viborg</t>
-  </si>
-  <si>
-    <t>Cracovia Kraków</t>
-  </si>
-  <si>
     <t>Norrköping</t>
   </si>
   <si>
@@ -277,27 +277,27 @@
     <t>Torreense</t>
   </si>
   <si>
+    <t>Samsunspor</t>
+  </si>
+  <si>
+    <t>Ankaragücü</t>
+  </si>
+  <si>
+    <t>Ajax II</t>
+  </si>
+  <si>
     <t>Utrecht II</t>
   </si>
   <si>
-    <t>Samsunspor</t>
-  </si>
-  <si>
-    <t>Ankaragücü</t>
-  </si>
-  <si>
-    <t>Ajax II</t>
-  </si>
-  <si>
     <t>Universitatea Cluj</t>
   </si>
   <si>
+    <t>Ajaccio</t>
+  </si>
+  <si>
     <t>Bologna</t>
   </si>
   <si>
-    <t>Ajaccio</t>
-  </si>
-  <si>
     <t>Crystal Palace</t>
   </si>
   <si>
@@ -349,18 +349,18 @@
     <t>Cagliari</t>
   </si>
   <si>
+    <t>Vejle</t>
+  </si>
+  <si>
+    <t>Piast Gliwice</t>
+  </si>
+  <si>
+    <t>Sevilla FC</t>
+  </si>
+  <si>
     <t>CD Eldense</t>
   </si>
   <si>
-    <t>Sevilla FC</t>
-  </si>
-  <si>
-    <t>Vejle</t>
-  </si>
-  <si>
-    <t>Piast Gliwice</t>
-  </si>
-  <si>
     <t>AIK</t>
   </si>
   <si>
@@ -370,25 +370,25 @@
     <t>CD Nacional</t>
   </si>
   <si>
+    <t>Fenerbahçe</t>
+  </si>
+  <si>
+    <t>Adana Demirspor</t>
+  </si>
+  <si>
+    <t>De Graafschap</t>
+  </si>
+  <si>
     <t>Groningen</t>
   </si>
   <si>
-    <t>Fenerbahçe</t>
-  </si>
-  <si>
-    <t>Adana Demirspor</t>
-  </si>
-  <si>
-    <t>De Graafschap</t>
-  </si>
-  <si>
     <t>CFR Cluj</t>
   </si>
   <si>
+    <t>Bordeaux</t>
+  </si>
+  <si>
     <t>AC Milan</t>
-  </si>
-  <si>
-    <t>Bordeaux</t>
   </si>
   <si>
     <t>Arsenal</t>
@@ -919,13 +919,13 @@
         <v>106</v>
       </c>
       <c r="G2">
-        <v>2.19</v>
+        <v>2.15</v>
       </c>
       <c r="H2">
-        <v>2.97</v>
+        <v>3.25</v>
       </c>
       <c r="I2">
-        <v>2.73</v>
+        <v>2.95</v>
       </c>
       <c r="J2">
         <v>1.08</v>
@@ -940,10 +940,10 @@
         <v>3.2</v>
       </c>
       <c r="N2">
-        <v>1.84</v>
+        <v>1.95</v>
       </c>
       <c r="O2">
-        <v>1.71</v>
+        <v>1.75</v>
       </c>
       <c r="P2">
         <v>1.44</v>
@@ -967,10 +967,10 @@
         <v>1.57</v>
       </c>
       <c r="W2">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="X2">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="Y2">
         <v>1.58</v>
@@ -1026,13 +1026,13 @@
         <v>107</v>
       </c>
       <c r="G3">
-        <v>1.51</v>
+        <v>1.53</v>
       </c>
       <c r="H3">
-        <v>4.29</v>
+        <v>4</v>
       </c>
       <c r="I3">
-        <v>5.15</v>
+        <v>4.75</v>
       </c>
       <c r="J3">
         <v>1.04</v>
@@ -1047,10 +1047,10 @@
         <v>3.9</v>
       </c>
       <c r="N3">
-        <v>1.9</v>
+        <v>1.65</v>
       </c>
       <c r="O3">
-        <v>1.9</v>
+        <v>2.1</v>
       </c>
       <c r="P3">
         <v>1.33</v>
@@ -1074,10 +1074,10 @@
         <v>2.3</v>
       </c>
       <c r="W3">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="X3">
-        <v>0.17</v>
+        <v>0.23</v>
       </c>
       <c r="Y3">
         <v>1.75</v>
@@ -1133,13 +1133,13 @@
         <v>108</v>
       </c>
       <c r="G4">
-        <v>2.34</v>
+        <v>2.76</v>
       </c>
       <c r="H4">
-        <v>3.16</v>
+        <v>3.4</v>
       </c>
       <c r="I4">
-        <v>2.41</v>
+        <v>2.12</v>
       </c>
       <c r="J4">
         <v>1.03</v>
@@ -1154,10 +1154,10 @@
         <v>4</v>
       </c>
       <c r="N4">
-        <v>1.87</v>
+        <v>1.65</v>
       </c>
       <c r="O4">
-        <v>1.68</v>
+        <v>2.1</v>
       </c>
       <c r="P4">
         <v>1.33</v>
@@ -1240,13 +1240,13 @@
         <v>109</v>
       </c>
       <c r="G5">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="H5">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="I5">
-        <v>4.15</v>
+        <v>4.5</v>
       </c>
       <c r="J5">
         <v>1.09</v>
@@ -1261,10 +1261,10 @@
         <v>2.75</v>
       </c>
       <c r="N5">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="O5">
-        <v>1.67</v>
+        <v>1.53</v>
       </c>
       <c r="P5">
         <v>1.48</v>
@@ -1347,13 +1347,13 @@
         <v>110</v>
       </c>
       <c r="G6">
-        <v>1.76</v>
+        <v>1.64</v>
       </c>
       <c r="H6">
-        <v>3.7</v>
+        <v>3.3</v>
       </c>
       <c r="I6">
-        <v>4.9</v>
+        <v>4.6</v>
       </c>
       <c r="J6">
         <v>1.06</v>
@@ -1368,10 +1368,10 @@
         <v>3.2</v>
       </c>
       <c r="N6">
-        <v>2.14</v>
+        <v>2.15</v>
       </c>
       <c r="O6">
-        <v>1.67</v>
+        <v>1.61</v>
       </c>
       <c r="P6">
         <v>1.44</v>
@@ -1445,7 +1445,7 @@
         <v>61</v>
       </c>
       <c r="D7">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E7" t="s">
         <v>80</v>
@@ -1454,91 +1454,91 @@
         <v>111</v>
       </c>
       <c r="G7">
-        <v>2.04</v>
+        <v>1.7</v>
       </c>
       <c r="H7">
-        <v>3.15</v>
+        <v>3.6</v>
       </c>
       <c r="I7">
-        <v>3.55</v>
+        <v>4.75</v>
       </c>
       <c r="J7">
-        <v>1.07</v>
+        <v>1.01</v>
       </c>
       <c r="K7">
-        <v>7.5</v>
+        <v>10.5</v>
       </c>
       <c r="L7">
+        <v>1.22</v>
+      </c>
+      <c r="M7">
+        <v>3.7</v>
+      </c>
+      <c r="N7">
+        <v>1.8</v>
+      </c>
+      <c r="O7">
+        <v>1.83</v>
+      </c>
+      <c r="P7">
         <v>1.36</v>
       </c>
-      <c r="M7">
+      <c r="Q7">
         <v>3</v>
       </c>
-      <c r="N7">
-        <v>2.1</v>
-      </c>
-      <c r="O7">
-        <v>1.7</v>
-      </c>
-      <c r="P7">
-        <v>1.44</v>
-      </c>
-      <c r="Q7">
-        <v>2.63</v>
-      </c>
       <c r="R7">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="S7">
-        <v>1.83</v>
+        <v>1.95</v>
       </c>
       <c r="T7">
-        <v>1.28</v>
+        <v>1.16</v>
       </c>
       <c r="U7">
         <v>1.25</v>
       </c>
       <c r="V7">
-        <v>1.66</v>
+        <v>1.94</v>
       </c>
       <c r="W7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Y7">
-        <v>0</v>
+        <v>1.84</v>
       </c>
       <c r="Z7">
-        <v>0.9399999999999999</v>
+        <v>1.07</v>
       </c>
       <c r="AA7">
-        <v>0.9399999999999999</v>
+        <v>2.91</v>
       </c>
       <c r="AB7">
-        <v>1.75</v>
+        <v>1.37</v>
       </c>
       <c r="AC7">
-        <v>7.5</v>
+        <v>9</v>
       </c>
       <c r="AD7">
-        <v>2.45</v>
+        <v>3.83</v>
       </c>
       <c r="AE7">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AF7">
-        <v>1.71</v>
+        <v>1.6</v>
       </c>
       <c r="AG7">
-        <v>2.25</v>
+        <v>2.04</v>
       </c>
       <c r="AH7">
-        <v>3.1</v>
+        <v>2.75</v>
       </c>
       <c r="AI7">
-        <v>4.5</v>
+        <v>3.85</v>
       </c>
     </row>
     <row r="8" spans="1:35">
@@ -1552,7 +1552,7 @@
         <v>61</v>
       </c>
       <c r="D8">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E8" t="s">
         <v>81</v>
@@ -1561,91 +1561,91 @@
         <v>112</v>
       </c>
       <c r="G8">
-        <v>3.15</v>
+        <v>2.3</v>
       </c>
       <c r="H8">
-        <v>3.25</v>
+        <v>2.9</v>
       </c>
       <c r="I8">
-        <v>2.39</v>
+        <v>3.1</v>
       </c>
       <c r="J8">
-        <v>1.11</v>
+        <v>1.09</v>
       </c>
       <c r="K8">
-        <v>7.2</v>
+        <v>8.5</v>
       </c>
       <c r="L8">
-        <v>1.52</v>
+        <v>1.43</v>
       </c>
       <c r="M8">
-        <v>2.55</v>
+        <v>2.88</v>
       </c>
       <c r="N8">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="O8">
         <v>1.53</v>
       </c>
       <c r="P8">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="Q8">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="R8">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="S8">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="T8">
-        <v>1.58</v>
+        <v>1.64</v>
       </c>
       <c r="U8">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="V8">
         <v>1.35</v>
       </c>
       <c r="W8">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="X8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y8">
-        <v>0</v>
+        <v>1.83</v>
       </c>
       <c r="Z8">
-        <v>0</v>
+        <v>1.41</v>
       </c>
       <c r="AA8">
-        <v>0</v>
+        <v>3.24</v>
       </c>
       <c r="AB8">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="AC8">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AD8">
-        <v>1.96</v>
+        <v>2.05</v>
       </c>
       <c r="AE8">
-        <v>1.28</v>
+        <v>1.25</v>
       </c>
       <c r="AF8">
-        <v>1.52</v>
+        <v>1.47</v>
       </c>
       <c r="AG8">
-        <v>1.88</v>
+        <v>1.77</v>
       </c>
       <c r="AH8">
         <v>2.38</v>
       </c>
       <c r="AI8">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
     </row>
     <row r="9" spans="1:35">
@@ -1659,7 +1659,7 @@
         <v>61</v>
       </c>
       <c r="D9">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E9" t="s">
         <v>82</v>
@@ -1668,91 +1668,91 @@
         <v>113</v>
       </c>
       <c r="G9">
-        <v>1.64</v>
+        <v>2.9</v>
       </c>
       <c r="H9">
-        <v>3.44</v>
+        <v>2.95</v>
       </c>
       <c r="I9">
-        <v>4.37</v>
+        <v>2.2</v>
       </c>
       <c r="J9">
-        <v>1.01</v>
+        <v>1.11</v>
       </c>
       <c r="K9">
-        <v>10.5</v>
+        <v>7.2</v>
       </c>
       <c r="L9">
-        <v>1.22</v>
+        <v>1.5</v>
       </c>
       <c r="M9">
-        <v>3.7</v>
+        <v>2.45</v>
       </c>
       <c r="N9">
-        <v>1.79</v>
+        <v>2.57</v>
       </c>
       <c r="O9">
-        <v>1.81</v>
+        <v>1.47</v>
       </c>
       <c r="P9">
-        <v>1.36</v>
+        <v>1.57</v>
       </c>
       <c r="Q9">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="R9">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="S9">
-        <v>1.95</v>
+        <v>1.67</v>
       </c>
       <c r="T9">
-        <v>1.16</v>
+        <v>1.58</v>
       </c>
       <c r="U9">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="V9">
-        <v>1.94</v>
+        <v>1.35</v>
       </c>
       <c r="W9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X9">
         <v>0</v>
       </c>
       <c r="Y9">
-        <v>1.84</v>
+        <v>0</v>
       </c>
       <c r="Z9">
-        <v>1.07</v>
+        <v>0</v>
       </c>
       <c r="AA9">
-        <v>2.91</v>
+        <v>0</v>
       </c>
       <c r="AB9">
-        <v>1.37</v>
+        <v>2.1</v>
       </c>
       <c r="AC9">
-        <v>9</v>
+        <v>7.5</v>
       </c>
       <c r="AD9">
-        <v>3.83</v>
+        <v>1.96</v>
       </c>
       <c r="AE9">
-        <v>1.33</v>
+        <v>1.28</v>
       </c>
       <c r="AF9">
-        <v>1.6</v>
+        <v>1.52</v>
       </c>
       <c r="AG9">
-        <v>2.04</v>
+        <v>1.88</v>
       </c>
       <c r="AH9">
-        <v>2.75</v>
+        <v>2.38</v>
       </c>
       <c r="AI9">
-        <v>3.85</v>
+        <v>3.15</v>
       </c>
     </row>
     <row r="10" spans="1:35">
@@ -1766,7 +1766,7 @@
         <v>61</v>
       </c>
       <c r="D10">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E10" t="s">
         <v>83</v>
@@ -1775,91 +1775,91 @@
         <v>114</v>
       </c>
       <c r="G10">
-        <v>2.72</v>
+        <v>2.25</v>
       </c>
       <c r="H10">
-        <v>2.99</v>
+        <v>2.88</v>
       </c>
       <c r="I10">
-        <v>2.34</v>
+        <v>2.97</v>
       </c>
       <c r="J10">
-        <v>1.09</v>
+        <v>1.07</v>
       </c>
       <c r="K10">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="L10">
-        <v>1.43</v>
+        <v>1.36</v>
       </c>
       <c r="M10">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="N10">
-        <v>2.33</v>
+        <v>2.25</v>
       </c>
       <c r="O10">
-        <v>1.58</v>
+        <v>1.57</v>
       </c>
       <c r="P10">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="Q10">
-        <v>2.38</v>
+        <v>2.63</v>
       </c>
       <c r="R10">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="S10">
+        <v>1.83</v>
+      </c>
+      <c r="T10">
+        <v>1.28</v>
+      </c>
+      <c r="U10">
+        <v>1.25</v>
+      </c>
+      <c r="V10">
+        <v>1.66</v>
+      </c>
+      <c r="W10">
+        <v>0</v>
+      </c>
+      <c r="X10">
+        <v>3</v>
+      </c>
+      <c r="Y10">
+        <v>0</v>
+      </c>
+      <c r="Z10">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AA10">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AB10">
         <v>1.75</v>
       </c>
-      <c r="T10">
-        <v>1.64</v>
-      </c>
-      <c r="U10">
-        <v>1.33</v>
-      </c>
-      <c r="V10">
-        <v>1.35</v>
-      </c>
-      <c r="W10">
-        <v>3</v>
-      </c>
-      <c r="X10">
-        <v>1</v>
-      </c>
-      <c r="Y10">
-        <v>1.83</v>
-      </c>
-      <c r="Z10">
-        <v>1.41</v>
-      </c>
-      <c r="AA10">
-        <v>3.24</v>
-      </c>
-      <c r="AB10">
-        <v>1.95</v>
-      </c>
       <c r="AC10">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AD10">
-        <v>2.05</v>
+        <v>2.45</v>
       </c>
       <c r="AE10">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AF10">
-        <v>1.47</v>
+        <v>1.71</v>
       </c>
       <c r="AG10">
-        <v>1.77</v>
+        <v>2.25</v>
       </c>
       <c r="AH10">
-        <v>2.38</v>
+        <v>3.1</v>
       </c>
       <c r="AI10">
-        <v>3.25</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="11" spans="1:35">
@@ -1882,13 +1882,13 @@
         <v>115</v>
       </c>
       <c r="G11">
-        <v>2.23</v>
+        <v>2.32</v>
       </c>
       <c r="H11">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="I11">
-        <v>2.76</v>
+        <v>2.6</v>
       </c>
       <c r="J11">
         <v>1.05</v>
@@ -1903,10 +1903,10 @@
         <v>3.55</v>
       </c>
       <c r="N11">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="O11">
-        <v>1.86</v>
+        <v>1.85</v>
       </c>
       <c r="P11">
         <v>1.36</v>
@@ -1989,13 +1989,13 @@
         <v>116</v>
       </c>
       <c r="G12">
-        <v>1.13</v>
+        <v>1.16</v>
       </c>
       <c r="H12">
-        <v>6.1</v>
+        <v>6.3</v>
       </c>
       <c r="I12">
-        <v>14</v>
+        <v>11.88</v>
       </c>
       <c r="J12">
         <v>1</v>
@@ -2010,10 +2010,10 @@
         <v>3.6</v>
       </c>
       <c r="N12">
-        <v>1.89</v>
+        <v>1.77</v>
       </c>
       <c r="O12">
-        <v>1.89</v>
+        <v>1.94</v>
       </c>
       <c r="P12">
         <v>1.36</v>
@@ -2099,10 +2099,10 @@
         <v>2.2</v>
       </c>
       <c r="H13">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="I13">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="J13">
         <v>1.03</v>
@@ -2117,10 +2117,10 @@
         <v>2.95</v>
       </c>
       <c r="N13">
-        <v>2.01</v>
+        <v>2.05</v>
       </c>
       <c r="O13">
-        <v>1.66</v>
+        <v>1.61</v>
       </c>
       <c r="P13">
         <v>1.42</v>
@@ -2203,10 +2203,10 @@
         <v>118</v>
       </c>
       <c r="G14">
-        <v>4.6</v>
+        <v>4.75</v>
       </c>
       <c r="H14">
-        <v>3.75</v>
+        <v>3.9</v>
       </c>
       <c r="I14">
         <v>1.57</v>
@@ -2215,40 +2215,40 @@
         <v>1.03</v>
       </c>
       <c r="K14">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L14">
-        <v>1.18</v>
+        <v>1.15</v>
       </c>
       <c r="M14">
-        <v>4.33</v>
+        <v>5.17</v>
       </c>
       <c r="N14">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="O14">
-        <v>2.25</v>
+        <v>2.35</v>
       </c>
       <c r="P14">
         <v>1.3</v>
       </c>
       <c r="Q14">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="R14">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="S14">
-        <v>2.1</v>
+        <v>2.35</v>
       </c>
       <c r="T14">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="U14">
         <v>1.25</v>
       </c>
       <c r="V14">
-        <v>1.18</v>
+        <v>1.12</v>
       </c>
       <c r="W14">
         <v>0</v>
@@ -2266,25 +2266,25 @@
         <v>0</v>
       </c>
       <c r="AB14">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="AC14">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AD14">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="AE14">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="AF14">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AG14">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AH14">
-        <v>2.55</v>
+        <v>2.5</v>
       </c>
       <c r="AI14">
         <v>3.5</v>
@@ -2292,7 +2292,7 @@
     </row>
     <row r="15" spans="1:35">
       <c r="A15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B15" s="2">
         <v>45159</v>
@@ -2310,52 +2310,52 @@
         <v>119</v>
       </c>
       <c r="G15">
-        <v>4.8</v>
+        <v>2.9</v>
       </c>
       <c r="H15">
-        <v>4.3</v>
+        <v>3.5</v>
       </c>
       <c r="I15">
-        <v>1.58</v>
+        <v>2.05</v>
       </c>
       <c r="J15">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="K15">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="L15">
-        <v>1.15</v>
+        <v>1.12</v>
       </c>
       <c r="M15">
-        <v>5.17</v>
+        <v>5.7</v>
       </c>
       <c r="N15">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="O15">
-        <v>2.37</v>
+        <v>2.75</v>
       </c>
       <c r="P15">
-        <v>1.3</v>
+        <v>1.24</v>
       </c>
       <c r="Q15">
-        <v>3.75</v>
+        <v>3.82</v>
       </c>
       <c r="R15">
-        <v>1.6</v>
+        <v>1.4</v>
       </c>
       <c r="S15">
-        <v>2.35</v>
+        <v>2.81</v>
       </c>
       <c r="T15">
-        <v>2.3</v>
+        <v>1.57</v>
       </c>
       <c r="U15">
-        <v>1.25</v>
+        <v>1.27</v>
       </c>
       <c r="V15">
-        <v>1.12</v>
+        <v>1.42</v>
       </c>
       <c r="W15">
         <v>0</v>
@@ -2373,28 +2373,28 @@
         <v>0</v>
       </c>
       <c r="AB15">
-        <v>3.3</v>
+        <v>1.78</v>
       </c>
       <c r="AC15">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AD15">
-        <v>1.53</v>
+        <v>2.6</v>
       </c>
       <c r="AE15">
-        <v>1.27</v>
+        <v>1.22</v>
       </c>
       <c r="AF15">
-        <v>1.5</v>
+        <v>1.42</v>
       </c>
       <c r="AG15">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AH15">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="AI15">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="16" spans="1:35">
@@ -2417,52 +2417,52 @@
         <v>120</v>
       </c>
       <c r="G16">
-        <v>2.89</v>
+        <v>2.75</v>
       </c>
       <c r="H16">
-        <v>3.85</v>
+        <v>3.5</v>
       </c>
       <c r="I16">
-        <v>2.11</v>
+        <v>2.15</v>
       </c>
       <c r="J16">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="K16">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L16">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="M16">
-        <v>5.7</v>
+        <v>7</v>
       </c>
       <c r="N16">
-        <v>1.53</v>
+        <v>1.4</v>
       </c>
       <c r="O16">
-        <v>2.43</v>
+        <v>2.88</v>
       </c>
       <c r="P16">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="Q16">
-        <v>3.82</v>
+        <v>4</v>
       </c>
       <c r="R16">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="S16">
-        <v>2.81</v>
+        <v>3</v>
       </c>
       <c r="T16">
-        <v>1.57</v>
+        <v>1.8</v>
       </c>
       <c r="U16">
-        <v>1.27</v>
+        <v>1.2</v>
       </c>
       <c r="V16">
-        <v>1.42</v>
+        <v>1.36</v>
       </c>
       <c r="W16">
         <v>0</v>
@@ -2480,33 +2480,33 @@
         <v>0</v>
       </c>
       <c r="AB16">
-        <v>1.78</v>
+        <v>2.5</v>
       </c>
       <c r="AC16">
-        <v>6.5</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD16">
-        <v>2.6</v>
+        <v>1.71</v>
       </c>
       <c r="AE16">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="AF16">
         <v>1.42</v>
       </c>
       <c r="AG16">
-        <v>1.83</v>
+        <v>1.86</v>
       </c>
       <c r="AH16">
-        <v>2.25</v>
+        <v>2.21</v>
       </c>
       <c r="AI16">
-        <v>3.1</v>
+        <v>2.93</v>
       </c>
     </row>
     <row r="17" spans="1:35">
       <c r="A17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B17" s="2">
         <v>45159</v>
@@ -2524,91 +2524,91 @@
         <v>121</v>
       </c>
       <c r="G17">
-        <v>2.75</v>
+        <v>4.6</v>
       </c>
       <c r="H17">
+        <v>3.75</v>
+      </c>
+      <c r="I17">
+        <v>1.57</v>
+      </c>
+      <c r="J17">
+        <v>1.03</v>
+      </c>
+      <c r="K17">
+        <v>18</v>
+      </c>
+      <c r="L17">
+        <v>1.18</v>
+      </c>
+      <c r="M17">
+        <v>4.33</v>
+      </c>
+      <c r="N17">
+        <v>1.57</v>
+      </c>
+      <c r="O17">
+        <v>2.25</v>
+      </c>
+      <c r="P17">
+        <v>1.3</v>
+      </c>
+      <c r="Q17">
+        <v>3.4</v>
+      </c>
+      <c r="R17">
+        <v>1.67</v>
+      </c>
+      <c r="S17">
+        <v>2.1</v>
+      </c>
+      <c r="T17">
+        <v>2.1</v>
+      </c>
+      <c r="U17">
+        <v>1.25</v>
+      </c>
+      <c r="V17">
+        <v>1.18</v>
+      </c>
+      <c r="W17">
+        <v>0</v>
+      </c>
+      <c r="X17">
+        <v>0</v>
+      </c>
+      <c r="Y17">
+        <v>0</v>
+      </c>
+      <c r="Z17">
+        <v>0</v>
+      </c>
+      <c r="AA17">
+        <v>0</v>
+      </c>
+      <c r="AB17">
+        <v>3.55</v>
+      </c>
+      <c r="AC17">
+        <v>7.8</v>
+      </c>
+      <c r="AD17">
+        <v>1.47</v>
+      </c>
+      <c r="AE17">
+        <v>1.29</v>
+      </c>
+      <c r="AF17">
+        <v>1.53</v>
+      </c>
+      <c r="AG17">
+        <v>1.92</v>
+      </c>
+      <c r="AH17">
+        <v>2.55</v>
+      </c>
+      <c r="AI17">
         <v>3.5</v>
-      </c>
-      <c r="I17">
-        <v>2.15</v>
-      </c>
-      <c r="J17">
-        <v>0</v>
-      </c>
-      <c r="K17">
-        <v>0</v>
-      </c>
-      <c r="L17">
-        <v>0</v>
-      </c>
-      <c r="M17">
-        <v>0</v>
-      </c>
-      <c r="N17">
-        <v>1.4</v>
-      </c>
-      <c r="O17">
-        <v>2.88</v>
-      </c>
-      <c r="P17">
-        <v>1.22</v>
-      </c>
-      <c r="Q17">
-        <v>4</v>
-      </c>
-      <c r="R17">
-        <v>1.36</v>
-      </c>
-      <c r="S17">
-        <v>3</v>
-      </c>
-      <c r="T17">
-        <v>0</v>
-      </c>
-      <c r="U17">
-        <v>0</v>
-      </c>
-      <c r="V17">
-        <v>0</v>
-      </c>
-      <c r="W17">
-        <v>0</v>
-      </c>
-      <c r="X17">
-        <v>0</v>
-      </c>
-      <c r="Y17">
-        <v>0</v>
-      </c>
-      <c r="Z17">
-        <v>0</v>
-      </c>
-      <c r="AA17">
-        <v>0</v>
-      </c>
-      <c r="AB17">
-        <v>0</v>
-      </c>
-      <c r="AC17">
-        <v>0</v>
-      </c>
-      <c r="AD17">
-        <v>0</v>
-      </c>
-      <c r="AE17">
-        <v>0</v>
-      </c>
-      <c r="AF17">
-        <v>0</v>
-      </c>
-      <c r="AG17">
-        <v>0</v>
-      </c>
-      <c r="AH17">
-        <v>0</v>
-      </c>
-      <c r="AI17">
-        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:35">
@@ -2631,10 +2631,10 @@
         <v>122</v>
       </c>
       <c r="G18">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="H18">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="I18">
         <v>2.05</v>
@@ -2652,10 +2652,10 @@
         <v>2.7</v>
       </c>
       <c r="N18">
-        <v>2.28</v>
+        <v>2.15</v>
       </c>
       <c r="O18">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="P18">
         <v>1.49</v>
@@ -2720,7 +2720,7 @@
     </row>
     <row r="19" spans="1:35">
       <c r="A19" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="B19" s="2">
         <v>45159</v>
@@ -2729,7 +2729,7 @@
         <v>67</v>
       </c>
       <c r="D19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E19" t="s">
         <v>92</v>
@@ -2738,96 +2738,96 @@
         <v>123</v>
       </c>
       <c r="G19">
-        <v>3.7</v>
+        <v>2.49</v>
       </c>
       <c r="H19">
-        <v>3.6</v>
+        <v>2.87</v>
       </c>
       <c r="I19">
-        <v>2.04</v>
+        <v>2.64</v>
       </c>
       <c r="J19">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="K19">
-        <v>8</v>
+        <v>6.25</v>
       </c>
       <c r="L19">
-        <v>1.33</v>
+        <v>1.52</v>
       </c>
       <c r="M19">
-        <v>3.2</v>
+        <v>2.54</v>
       </c>
       <c r="N19">
-        <v>2.04</v>
+        <v>2.33</v>
       </c>
       <c r="O19">
-        <v>1.74</v>
+        <v>1.53</v>
       </c>
       <c r="P19">
+        <v>1.53</v>
+      </c>
+      <c r="Q19">
+        <v>2.38</v>
+      </c>
+      <c r="R19">
+        <v>2</v>
+      </c>
+      <c r="S19">
+        <v>1.73</v>
+      </c>
+      <c r="T19">
+        <v>1.41</v>
+      </c>
+      <c r="U19">
         <v>1.4</v>
       </c>
-      <c r="Q19">
+      <c r="V19">
+        <v>1.47</v>
+      </c>
+      <c r="W19">
+        <v>1</v>
+      </c>
+      <c r="X19">
+        <v>0</v>
+      </c>
+      <c r="Y19">
+        <v>2.08</v>
+      </c>
+      <c r="Z19">
+        <v>2</v>
+      </c>
+      <c r="AA19">
+        <v>4.08</v>
+      </c>
+      <c r="AB19">
+        <v>1.98</v>
+      </c>
+      <c r="AC19">
+        <v>7.9</v>
+      </c>
+      <c r="AD19">
+        <v>2.17</v>
+      </c>
+      <c r="AE19">
+        <v>1.57</v>
+      </c>
+      <c r="AF19">
+        <v>2.02</v>
+      </c>
+      <c r="AG19">
         <v>2.75</v>
       </c>
-      <c r="R19">
-        <v>1.8</v>
-      </c>
-      <c r="S19">
-        <v>1.95</v>
-      </c>
-      <c r="T19">
-        <v>1.84</v>
-      </c>
-      <c r="U19">
-        <v>1.3</v>
-      </c>
-      <c r="V19">
-        <v>1.28</v>
-      </c>
-      <c r="W19">
-        <v>0</v>
-      </c>
-      <c r="X19">
-        <v>0</v>
-      </c>
-      <c r="Y19">
-        <v>0</v>
-      </c>
-      <c r="Z19">
-        <v>0</v>
-      </c>
-      <c r="AA19">
-        <v>0</v>
-      </c>
-      <c r="AB19">
-        <v>2.4</v>
-      </c>
-      <c r="AC19">
-        <v>7.5</v>
-      </c>
-      <c r="AD19">
-        <v>1.77</v>
-      </c>
-      <c r="AE19">
-        <v>1.34</v>
-      </c>
-      <c r="AF19">
-        <v>1.76</v>
-      </c>
-      <c r="AG19">
-        <v>2.2</v>
-      </c>
       <c r="AH19">
-        <v>2.65</v>
+        <v>3.9</v>
       </c>
       <c r="AI19">
-        <v>3.55</v>
+        <v>6.7</v>
       </c>
     </row>
     <row r="20" spans="1:35">
       <c r="A20" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="B20" s="2">
         <v>45159</v>
@@ -2836,7 +2836,7 @@
         <v>67</v>
       </c>
       <c r="D20">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E20" t="s">
         <v>93</v>
@@ -2845,91 +2845,91 @@
         <v>124</v>
       </c>
       <c r="G20">
-        <v>2.33</v>
+        <v>3.9</v>
       </c>
       <c r="H20">
-        <v>3.05</v>
+        <v>3.25</v>
       </c>
       <c r="I20">
-        <v>2.94</v>
+        <v>1.77</v>
       </c>
       <c r="J20">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="K20">
-        <v>6.25</v>
+        <v>8</v>
       </c>
       <c r="L20">
-        <v>1.52</v>
+        <v>1.33</v>
       </c>
       <c r="M20">
-        <v>2.54</v>
+        <v>3.2</v>
       </c>
       <c r="N20">
-        <v>2.44</v>
+        <v>2</v>
       </c>
       <c r="O20">
-        <v>1.49</v>
+        <v>1.72</v>
       </c>
       <c r="P20">
-        <v>1.53</v>
+        <v>1.4</v>
       </c>
       <c r="Q20">
-        <v>2.38</v>
+        <v>2.75</v>
       </c>
       <c r="R20">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S20">
-        <v>1.73</v>
+        <v>1.95</v>
       </c>
       <c r="T20">
-        <v>1.41</v>
+        <v>1.84</v>
       </c>
       <c r="U20">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="V20">
-        <v>1.47</v>
+        <v>1.28</v>
       </c>
       <c r="W20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X20">
         <v>0</v>
       </c>
       <c r="Y20">
-        <v>2.08</v>
+        <v>0</v>
       </c>
       <c r="Z20">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AA20">
-        <v>4.08</v>
+        <v>0</v>
       </c>
       <c r="AB20">
-        <v>1.98</v>
+        <v>2.4</v>
       </c>
       <c r="AC20">
-        <v>7.9</v>
+        <v>7.5</v>
       </c>
       <c r="AD20">
-        <v>2.17</v>
+        <v>1.77</v>
       </c>
       <c r="AE20">
-        <v>1.57</v>
+        <v>1.34</v>
       </c>
       <c r="AF20">
-        <v>2.02</v>
+        <v>1.76</v>
       </c>
       <c r="AG20">
-        <v>2.75</v>
+        <v>2.2</v>
       </c>
       <c r="AH20">
-        <v>3.9</v>
+        <v>2.65</v>
       </c>
       <c r="AI20">
-        <v>6.7</v>
+        <v>3.55</v>
       </c>
     </row>
     <row r="21" spans="1:35">
@@ -2952,13 +2952,13 @@
         <v>125</v>
       </c>
       <c r="G21">
-        <v>5.9</v>
+        <v>5.2</v>
       </c>
       <c r="H21">
-        <v>4.3</v>
+        <v>3.75</v>
       </c>
       <c r="I21">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="J21">
         <v>1.04</v>
@@ -2973,10 +2973,10 @@
         <v>3.65</v>
       </c>
       <c r="N21">
-        <v>1.96</v>
+        <v>1.77</v>
       </c>
       <c r="O21">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="P21">
         <v>1.36</v>
@@ -3059,13 +3059,13 @@
         <v>126</v>
       </c>
       <c r="G22">
-        <v>2.01</v>
+        <v>1.8</v>
       </c>
       <c r="H22">
-        <v>3.59</v>
+        <v>3.6</v>
       </c>
       <c r="I22">
-        <v>3.27</v>
+        <v>3.6</v>
       </c>
       <c r="J22">
         <v>1.02</v>
@@ -3080,10 +3080,10 @@
         <v>4.75</v>
       </c>
       <c r="N22">
-        <v>1.41</v>
+        <v>1.53</v>
       </c>
       <c r="O22">
-        <v>2.48</v>
+        <v>2.35</v>
       </c>
       <c r="P22">
         <v>1.25</v>
@@ -3166,31 +3166,31 @@
         <v>127</v>
       </c>
       <c r="G23">
+        <v>1.73</v>
+      </c>
+      <c r="H23">
+        <v>3.25</v>
+      </c>
+      <c r="I23">
+        <v>4.1</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+      <c r="N23">
         <v>2.08</v>
       </c>
-      <c r="H23">
-        <v>3.3</v>
-      </c>
-      <c r="I23">
-        <v>3.4</v>
-      </c>
-      <c r="J23">
-        <v>0</v>
-      </c>
-      <c r="K23">
-        <v>0</v>
-      </c>
-      <c r="L23">
-        <v>0</v>
-      </c>
-      <c r="M23">
-        <v>0</v>
-      </c>
-      <c r="N23">
-        <v>2.25</v>
-      </c>
       <c r="O23">
-        <v>1.6</v>
+        <v>1.66</v>
       </c>
       <c r="P23">
         <v>0</v>
@@ -3255,7 +3255,7 @@
     </row>
     <row r="24" spans="1:35">
       <c r="A24" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B24" s="2">
         <v>45159</v>
@@ -3273,13 +3273,13 @@
         <v>128</v>
       </c>
       <c r="G24">
-        <v>2.61</v>
+        <v>2.95</v>
       </c>
       <c r="H24">
-        <v>3.05</v>
+        <v>2.58</v>
       </c>
       <c r="I24">
-        <v>2.69</v>
+        <v>2.49</v>
       </c>
       <c r="J24">
         <v>1.09</v>
@@ -3288,16 +3288,16 @@
         <v>5.8</v>
       </c>
       <c r="L24">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="M24">
-        <v>2.43</v>
+        <v>2.3</v>
       </c>
       <c r="N24">
-        <v>2.5</v>
+        <v>2.88</v>
       </c>
       <c r="O24">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="P24">
         <v>1.62</v>
@@ -3362,7 +3362,7 @@
     </row>
     <row r="25" spans="1:35">
       <c r="A25" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B25" s="2">
         <v>45159</v>
@@ -3380,13 +3380,13 @@
         <v>129</v>
       </c>
       <c r="G25">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="H25">
-        <v>3.25</v>
+        <v>2.9</v>
       </c>
       <c r="I25">
-        <v>2.86</v>
+        <v>2.6</v>
       </c>
       <c r="J25">
         <v>1.09</v>
@@ -3401,10 +3401,10 @@
         <v>2.75</v>
       </c>
       <c r="N25">
-        <v>2.25</v>
+        <v>2.37</v>
       </c>
       <c r="O25">
-        <v>1.65</v>
+        <v>1.53</v>
       </c>
       <c r="P25">
         <v>1.53</v>
@@ -3487,13 +3487,13 @@
         <v>130</v>
       </c>
       <c r="G26">
-        <v>2.63</v>
+        <v>2.8</v>
       </c>
       <c r="H26">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="I26">
-        <v>2.38</v>
+        <v>2.35</v>
       </c>
       <c r="J26">
         <v>1.02</v>
@@ -3508,7 +3508,7 @@
         <v>3.13</v>
       </c>
       <c r="N26">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="O26">
         <v>1.67</v>
@@ -3701,13 +3701,13 @@
         <v>132</v>
       </c>
       <c r="G28">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="H28">
-        <v>3.02</v>
+        <v>3.1</v>
       </c>
       <c r="I28">
-        <v>2.64</v>
+        <v>2.8</v>
       </c>
       <c r="J28">
         <v>0</v>
@@ -3722,10 +3722,10 @@
         <v>0</v>
       </c>
       <c r="N28">
-        <v>1.94</v>
+        <v>1.91</v>
       </c>
       <c r="O28">
-        <v>1.83</v>
+        <v>1.75</v>
       </c>
       <c r="P28">
         <v>0</v>
@@ -3808,13 +3808,13 @@
         <v>133</v>
       </c>
       <c r="G29">
-        <v>1.78</v>
+        <v>1.91</v>
       </c>
       <c r="H29">
         <v>3</v>
       </c>
       <c r="I29">
-        <v>3.76</v>
+        <v>3.9</v>
       </c>
       <c r="J29">
         <v>1.1</v>
@@ -3829,10 +3829,10 @@
         <v>2.48</v>
       </c>
       <c r="N29">
-        <v>2.55</v>
+        <v>2.3</v>
       </c>
       <c r="O29">
-        <v>1.45</v>
+        <v>1.5</v>
       </c>
       <c r="P29">
         <v>1.44</v>
@@ -3871,28 +3871,28 @@
         <v>3.05</v>
       </c>
       <c r="AB29">
-        <v>0</v>
+        <v>1.43</v>
       </c>
       <c r="AC29">
-        <v>0</v>
+        <v>9.1</v>
       </c>
       <c r="AD29">
-        <v>0</v>
+        <v>3.24</v>
       </c>
       <c r="AE29">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="AF29">
-        <v>0</v>
+        <v>1.48</v>
       </c>
       <c r="AG29">
-        <v>0</v>
+        <v>1.83</v>
       </c>
       <c r="AH29">
-        <v>0</v>
+        <v>2.34</v>
       </c>
       <c r="AI29">
-        <v>0</v>
+        <v>3.35</v>
       </c>
     </row>
     <row r="30" spans="1:35">
@@ -3915,13 +3915,13 @@
         <v>134</v>
       </c>
       <c r="G30">
-        <v>2.88</v>
+        <v>2.85</v>
       </c>
       <c r="H30">
-        <v>3.4</v>
+        <v>2.87</v>
       </c>
       <c r="I30">
-        <v>2.4</v>
+        <v>2.33</v>
       </c>
       <c r="J30">
         <v>1.07</v>
@@ -3936,10 +3936,10 @@
         <v>2.6</v>
       </c>
       <c r="N30">
-        <v>2.5</v>
+        <v>2.35</v>
       </c>
       <c r="O30">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="P30">
         <v>1.53</v>
@@ -3948,10 +3948,10 @@
         <v>2.38</v>
       </c>
       <c r="R30">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="S30">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="T30">
         <v>1.5</v>
@@ -3978,13 +3978,13 @@
         <v>2.9</v>
       </c>
       <c r="AB30">
+        <v>2.02</v>
+      </c>
+      <c r="AC30">
+        <v>8</v>
+      </c>
+      <c r="AD30">
         <v>2</v>
-      </c>
-      <c r="AC30">
-        <v>7.5</v>
-      </c>
-      <c r="AD30">
-        <v>2.05</v>
       </c>
       <c r="AE30">
         <v>1.14</v>
@@ -4022,13 +4022,13 @@
         <v>135</v>
       </c>
       <c r="G31">
-        <v>1.84</v>
+        <v>1.95</v>
       </c>
       <c r="H31">
-        <v>3.04</v>
+        <v>3</v>
       </c>
       <c r="I31">
-        <v>3.48</v>
+        <v>3.75</v>
       </c>
       <c r="J31">
         <v>1.06</v>
@@ -4043,10 +4043,10 @@
         <v>2.54</v>
       </c>
       <c r="N31">
-        <v>2.36</v>
+        <v>2.25</v>
       </c>
       <c r="O31">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="P31">
         <v>1.51</v>
@@ -4085,28 +4085,28 @@
         <v>3.34</v>
       </c>
       <c r="AB31">
-        <v>0</v>
+        <v>1.45</v>
       </c>
       <c r="AC31">
-        <v>0</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD31">
-        <v>0</v>
+        <v>3.13</v>
       </c>
       <c r="AE31">
         <v>0</v>
       </c>
       <c r="AF31">
-        <v>0</v>
+        <v>1.41</v>
       </c>
       <c r="AG31">
-        <v>0</v>
+        <v>1.71</v>
       </c>
       <c r="AH31">
-        <v>0</v>
+        <v>2.17</v>
       </c>
       <c r="AI31">
-        <v>0</v>
+        <v>2.65</v>
       </c>
     </row>
     <row r="32" spans="1:35">
@@ -4213,7 +4213,7 @@
         <v>3</v>
       </c>
       <c r="AI32">
-        <v>0</v>
+        <v>4.2</v>
       </c>
     </row>
   </sheetData>
